--- a/values.xlsx
+++ b/values.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -78,20 +75,20 @@
     <t>ppe16</t>
   </si>
   <si>
+    <t>as2</t>
+  </si>
+  <si>
+    <t>as3</t>
+  </si>
+  <si>
+    <t>as4</t>
+  </si>
+  <si>
+    <t>as5</t>
+  </si>
+  <si>
     <t>as1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>as2</t>
-  </si>
-  <si>
-    <t>as3</t>
-  </si>
-  <si>
-    <t>as4</t>
-  </si>
-  <si>
-    <t>as5</t>
   </si>
   <si>
     <t>as6</t>
@@ -124,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\);\-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -203,18 +200,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -232,394 +232,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TB"/>
-      <sheetName val="WBS_PL_CF"/>
-      <sheetName val="Dart_BS"/>
-      <sheetName val="Dart_PL"/>
-      <sheetName val="Dart_CE"/>
-      <sheetName val="Dart_CF"/>
-      <sheetName val="1"/>
-      <sheetName val="2"/>
-      <sheetName val="3"/>
-      <sheetName val="4"/>
-      <sheetName val="5"/>
-      <sheetName val="6"/>
-      <sheetName val="7"/>
-      <sheetName val="8"/>
-      <sheetName val="9"/>
-      <sheetName val="10"/>
-      <sheetName val="Mapping"/>
-      <sheetName val="En"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="20">
-          <cell r="D20">
-            <v>594246325</v>
-          </cell>
-          <cell r="F20">
-            <v>535880214</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>-510379729</v>
-          </cell>
-          <cell r="F21">
-            <v>-461896219</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>584592351</v>
-          </cell>
-          <cell r="F22">
-            <v>455648686</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>-302896895</v>
-          </cell>
-          <cell r="F23">
-            <v>-332633391</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>1233305718</v>
-          </cell>
-          <cell r="F24">
-            <v>1043338218</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>-1053649364</v>
-          </cell>
-          <cell r="F25">
-            <v>-938068040</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>173484838</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="8">
-          <cell r="B8">
-            <v>73983995</v>
-          </cell>
-          <cell r="C8">
-            <v>58366111</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>-48483510</v>
-          </cell>
-          <cell r="F8">
-            <v>83866596</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>123015295</v>
-          </cell>
-          <cell r="C9">
-            <v>240709443</v>
-          </cell>
-          <cell r="D9">
-            <v>-27941445</v>
-          </cell>
-          <cell r="E9">
-            <v>-54087837</v>
-          </cell>
-          <cell r="F9">
-            <v>281695456</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>105270178</v>
-          </cell>
-          <cell r="C10">
-            <v>189967500</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-          <cell r="E10">
-            <v>-115581324</v>
-          </cell>
-          <cell r="F10">
-            <v>179656354</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0</v>
-          </cell>
-          <cell r="C11">
-            <v>173484838</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="E11">
-            <v>0</v>
-          </cell>
-          <cell r="F11">
-            <v>173484838</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>302269468</v>
-          </cell>
-          <cell r="C12">
-            <v>662527892</v>
-          </cell>
-          <cell r="D12">
-            <v>-27941445</v>
-          </cell>
-          <cell r="E12">
-            <v>-218152671</v>
-          </cell>
-          <cell r="F12">
-            <v>718703244</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>115290301</v>
-          </cell>
-          <cell r="C18">
-            <v>13063772</v>
-          </cell>
-          <cell r="D18">
-            <v>0</v>
-          </cell>
-          <cell r="E18">
-            <v>-54370078</v>
-          </cell>
-          <cell r="F18">
-            <v>73983995</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>151741746</v>
-          </cell>
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-          <cell r="D19">
-            <v>-14326838</v>
-          </cell>
-          <cell r="E19">
-            <v>-14399613</v>
-          </cell>
-          <cell r="F19">
-            <v>123015295</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>206976050</v>
-          </cell>
-          <cell r="C20">
-            <v>14729000</v>
-          </cell>
-          <cell r="D20">
-            <v>0</v>
-          </cell>
-          <cell r="E20">
-            <v>-116434872</v>
-          </cell>
-          <cell r="F20">
-            <v>105270178</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>474008097</v>
-          </cell>
-          <cell r="C21">
-            <v>27792772</v>
-          </cell>
-          <cell r="D21">
-            <v>-14326838</v>
-          </cell>
-          <cell r="E21">
-            <v>-185204563</v>
-          </cell>
-          <cell r="F21">
-            <v>302269468</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="7">
-          <cell r="B7">
-            <v>81344813</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-          <cell r="E7">
-            <v>81344813</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>1369522365</v>
-          </cell>
-          <cell r="C8">
-            <v>3806170662</v>
-          </cell>
-          <cell r="D8">
-            <v>-3185444402</v>
-          </cell>
-          <cell r="E8">
-            <v>1990248625</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>81344813</v>
-          </cell>
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-          <cell r="D16">
-            <v>0</v>
-          </cell>
-          <cell r="E16">
-            <v>81344813</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>928103765</v>
-          </cell>
-          <cell r="C17">
-            <v>3297986328</v>
-          </cell>
-          <cell r="D17">
-            <v>-2856567728</v>
-          </cell>
-          <cell r="E17">
-            <v>1369522365</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="9">
-          <cell r="B9">
-            <v>3250889230</v>
-          </cell>
-          <cell r="C9">
-            <v>2267075760</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>-207148950</v>
-          </cell>
-          <cell r="C10">
-            <v>-50253720</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>898040217</v>
-          </cell>
-          <cell r="C11">
-            <v>644441770</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>0</v>
-          </cell>
-          <cell r="C12">
-            <v>389625420</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="9">
-          <cell r="C9">
-            <v>47999196</v>
-          </cell>
-          <cell r="D9">
-            <v>56903046929</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>38952</v>
-          </cell>
-          <cell r="D10">
-            <v>46177596</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>8123125</v>
-          </cell>
-          <cell r="D13">
-            <v>9629964273</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>901337</v>
-          </cell>
-          <cell r="D14">
-            <v>1209901084</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>40479</v>
-          </cell>
-          <cell r="D15">
-            <v>64775976</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,7 +503,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
@@ -943,514 +558,399 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <f>ROUND([1]Dart_BS!D20/1000,)</f>
         <v>594246</v>
       </c>
       <c r="B2" s="2">
-        <f>ROUND([1]Dart_BS!D21/1000,)</f>
         <v>-510380</v>
       </c>
       <c r="C2" s="2">
-        <f>SUM(A2:B2)</f>
         <v>83866</v>
       </c>
       <c r="D2" s="2">
-        <f>ROUND([1]Dart_BS!F20/1000,)</f>
         <v>535880</v>
       </c>
       <c r="E2" s="2">
-        <f>ROUND([1]Dart_BS!F21/1000,)</f>
         <v>-461896</v>
       </c>
       <c r="F2" s="2">
-        <f>SUM(D2:E2)</f>
         <v>73984</v>
       </c>
       <c r="G2" s="2">
-        <f>ROUND('[1]4'!B8/1000,)</f>
         <v>73984</v>
       </c>
       <c r="H2" s="2">
-        <f>ROUND('[1]4'!C8/1000,)</f>
         <v>58366</v>
       </c>
       <c r="I2" s="2">
-        <f>ROUND('[1]4'!D8/1000,)</f>
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <f>ROUND('[1]4'!E8/1000,)</f>
         <v>-48484</v>
       </c>
       <c r="K2" s="2">
-        <f>ROUND('[1]4'!F8/1000,)</f>
         <v>83867</v>
       </c>
       <c r="L2" s="2">
-        <f>ROUND('[1]4'!B18/1000,)</f>
         <v>115290</v>
       </c>
       <c r="M2" s="2">
-        <f>ROUND('[1]4'!C18/1000,)</f>
         <v>13064</v>
       </c>
       <c r="N2" s="2">
-        <f>ROUND('[1]4'!D18/1000,)</f>
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <f>ROUND('[1]4'!E18/1000,)</f>
         <v>-54370</v>
       </c>
       <c r="P2" s="2">
-        <f>ROUND('[1]4'!F18/1000,)</f>
         <v>73984</v>
       </c>
       <c r="Q2" s="2">
-        <f>ROUND('[1]6'!B7/1000,)</f>
         <v>81345</v>
       </c>
       <c r="R2" s="2">
-        <f>ROUND('[1]6'!C7/1000,)</f>
         <v>0</v>
       </c>
       <c r="S2" s="2">
-        <f>ROUND('[1]6'!D7/1000,)</f>
         <v>0</v>
       </c>
       <c r="T2" s="2">
-        <f>ROUND('[1]6'!E7/1000,)</f>
         <v>81345</v>
       </c>
       <c r="U2" s="2">
-        <f>ROUND('[1]6'!B16/1000,)</f>
         <v>81345</v>
       </c>
       <c r="V2" s="2">
-        <f>ROUND('[1]6'!C16/1000,)</f>
         <v>0</v>
       </c>
       <c r="W2" s="2">
-        <f>ROUND('[1]6'!D16/1000,)</f>
         <v>0</v>
       </c>
       <c r="X2" s="2">
-        <f>ROUND('[1]6'!E16/1000,)</f>
         <v>81345</v>
       </c>
       <c r="Y2" s="2">
-        <f>ROUND('[1]7'!B9/1000,)</f>
         <v>3250889</v>
       </c>
       <c r="Z2" s="2">
-        <f>ROUND('[1]7'!C9/1000,)</f>
         <v>2267076</v>
       </c>
       <c r="AA2" s="2">
-        <f>ROUND('[1]8'!C9,)</f>
         <v>47999196</v>
       </c>
       <c r="AB2" s="2">
-        <f>ROUND('[1]8'!D9,)</f>
         <v>56903046929</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <f>ROUND([1]Dart_BS!D22/1000,)</f>
-        <v>584592</v>
+        <v>603467</v>
       </c>
       <c r="B3" s="2">
-        <f>ROUND([1]Dart_BS!D23/1000,)</f>
         <v>-302897</v>
       </c>
       <c r="C3" s="2">
-        <f>SUM(A3:B3)</f>
-        <v>281695</v>
+        <v>300570</v>
       </c>
       <c r="D3" s="2">
-        <f>ROUND([1]Dart_BS!F22/1000,)</f>
         <v>455649</v>
       </c>
       <c r="E3" s="2">
-        <f>ROUND([1]Dart_BS!F23/1000,)</f>
         <v>-332633</v>
       </c>
       <c r="F3" s="2">
-        <f>SUM(D3:E3)</f>
         <v>123016</v>
       </c>
       <c r="G3" s="2">
-        <f>ROUND('[1]4'!B9/1000,)</f>
         <v>123015</v>
       </c>
       <c r="H3" s="2">
-        <f>ROUND('[1]4'!C9/1000,)</f>
         <v>240709</v>
       </c>
       <c r="I3" s="2">
-        <f>ROUND('[1]4'!D9/1000,)</f>
         <v>-27941</v>
       </c>
       <c r="J3" s="2">
-        <f>ROUND('[1]4'!E9/1000,)</f>
-        <v>-54088</v>
+        <v>-35213</v>
       </c>
       <c r="K3" s="2">
-        <f>ROUND('[1]4'!F9/1000,)</f>
-        <v>281695</v>
+        <v>300570</v>
       </c>
       <c r="L3" s="2">
-        <f>ROUND('[1]4'!B19/1000,)</f>
         <v>151742</v>
       </c>
       <c r="M3" s="2">
-        <f>ROUND('[1]4'!C19/1000,)</f>
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <f>ROUND('[1]4'!D19/1000,)</f>
         <v>-14327</v>
       </c>
       <c r="O3" s="2">
-        <f>ROUND('[1]4'!E19/1000,)</f>
         <v>-14400</v>
       </c>
       <c r="P3" s="2">
-        <f>ROUND('[1]4'!F19/1000,)</f>
         <v>123015</v>
       </c>
       <c r="Q3" s="2">
-        <f>ROUND('[1]6'!B8/1000,)</f>
         <v>1369522</v>
       </c>
       <c r="R3" s="2">
-        <f>ROUND('[1]6'!C8/1000,)</f>
         <v>3806171</v>
       </c>
       <c r="S3" s="2">
-        <f>ROUND('[1]6'!D8/1000,)</f>
         <v>-3185444</v>
       </c>
       <c r="T3" s="2">
-        <f>ROUND('[1]6'!E8/1000,)</f>
         <v>1990249</v>
       </c>
       <c r="U3" s="2">
-        <f>ROUND('[1]6'!B17/1000,)</f>
         <v>928104</v>
       </c>
       <c r="V3" s="2">
-        <f>ROUND('[1]6'!C17/1000,)</f>
         <v>3297986</v>
       </c>
       <c r="W3" s="2">
-        <f>ROUND('[1]6'!D17/1000,)</f>
         <v>-2856568</v>
       </c>
       <c r="X3" s="2">
-        <f>ROUND('[1]6'!E17/1000,)</f>
         <v>1369522</v>
       </c>
       <c r="Y3" s="2">
-        <f>ROUND('[1]7'!B10/1000,)</f>
         <v>-207149</v>
       </c>
       <c r="Z3" s="2">
-        <f>ROUND('[1]7'!C10/1000,)</f>
         <v>-50254</v>
       </c>
       <c r="AA3" s="2">
-        <f>ROUND('[1]8'!C10,)</f>
         <v>38952</v>
       </c>
       <c r="AB3" s="2">
-        <f>ROUND('[1]8'!D10,)</f>
         <v>46177596</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <f>ROUND([1]Dart_BS!D24/1000,)</f>
         <v>1233306</v>
       </c>
       <c r="B4" s="2">
-        <f>ROUND([1]Dart_BS!D25/1000,)</f>
         <v>-1053649</v>
       </c>
       <c r="C4" s="2">
-        <f>SUM(A4:B4)</f>
         <v>179657</v>
       </c>
       <c r="D4" s="2">
-        <f>ROUND([1]Dart_BS!F24/1000,)</f>
         <v>1043338</v>
       </c>
       <c r="E4" s="2">
-        <f>ROUND([1]Dart_BS!F25/1000,)</f>
         <v>-938068</v>
       </c>
       <c r="F4" s="2">
-        <f>SUM(D4:E4)</f>
         <v>105270</v>
       </c>
       <c r="G4" s="2">
-        <f>ROUND('[1]4'!B10/1000,)</f>
         <v>105270</v>
       </c>
       <c r="H4" s="2">
-        <f>ROUND('[1]4'!C10/1000,)</f>
         <v>189968</v>
       </c>
       <c r="I4" s="2">
-        <f>ROUND('[1]4'!D10/1000,)</f>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f>ROUND('[1]4'!E10/1000,)</f>
         <v>-115581</v>
       </c>
       <c r="K4" s="2">
-        <f>ROUND('[1]4'!F10/1000,)</f>
         <v>179656</v>
       </c>
       <c r="L4" s="2">
-        <f>ROUND('[1]4'!B20/1000,)</f>
         <v>206976</v>
       </c>
       <c r="M4" s="2">
-        <f>ROUND('[1]4'!C20/1000,)</f>
         <v>14729</v>
       </c>
       <c r="N4" s="2">
-        <f>ROUND('[1]4'!D20/1000,)</f>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f>ROUND('[1]4'!E20/1000,)</f>
         <v>-116435</v>
       </c>
       <c r="P4" s="2">
-        <f>ROUND('[1]4'!F20/1000,)</f>
         <v>105270</v>
       </c>
       <c r="Q4" s="2">
-        <f>SUM(Q2:Q3)</f>
         <v>1450867</v>
       </c>
       <c r="R4" s="2">
-        <f>SUM(R2:R3)</f>
         <v>3806171</v>
       </c>
       <c r="S4" s="2">
-        <f>SUM(S2:S3)</f>
         <v>-3185444</v>
       </c>
       <c r="T4" s="2">
-        <f>SUM(T2:T3)</f>
         <v>2071594</v>
       </c>
       <c r="U4" s="2">
-        <f>SUM(U2:U3)</f>
         <v>1009449</v>
       </c>
       <c r="V4" s="2">
-        <f>SUM(V2:V3)</f>
         <v>3297986</v>
       </c>
       <c r="W4" s="2">
-        <f>SUM(W2:W3)</f>
         <v>-2856568</v>
       </c>
       <c r="X4" s="2">
-        <f>SUM(X2:X3)</f>
         <v>1450867</v>
       </c>
       <c r="Y4" s="2">
-        <f>ROUND('[1]7'!B11/1000,)</f>
         <v>898040</v>
       </c>
       <c r="Z4" s="2">
-        <f>ROUND('[1]7'!C11/1000,)</f>
         <v>644442</v>
       </c>
       <c r="AA4" s="2">
-        <f>ROUND('[1]8'!C13,)</f>
         <v>8123125</v>
       </c>
       <c r="AB4" s="2">
-        <f>ROUND('[1]8'!D13,)</f>
         <v>9629964273</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f>ROUND([1]Dart_BS!D26/1000,)</f>
-        <v>173485</v>
+        <v>154610</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <f>SUM(A5:B5)</f>
-        <v>173485</v>
+        <v>154610</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(D2:D4)</f>
         <v>2034867</v>
       </c>
       <c r="E5" s="2">
-        <f>SUM(E2:E4)</f>
         <v>-1732597</v>
       </c>
       <c r="F5" s="2">
-        <f>SUM(F2:F4)</f>
         <v>302270</v>
       </c>
       <c r="G5" s="2">
-        <f>ROUND('[1]4'!B11/1000,)</f>
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <f>ROUND('[1]4'!C11/1000,)</f>
-        <v>173485</v>
+        <v>154610</v>
       </c>
       <c r="I5" s="2">
-        <f>ROUND('[1]4'!D11/1000,)</f>
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <f>ROUND('[1]4'!E11/1000,)</f>
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f>ROUND('[1]4'!F11/1000,)</f>
-        <v>173485</v>
+        <v>154610</v>
       </c>
       <c r="L5" s="2">
-        <f>ROUND('[1]4'!B21/1000,)</f>
         <v>474008</v>
       </c>
       <c r="M5" s="2">
-        <f>ROUND('[1]4'!C21/1000,)</f>
         <v>27793</v>
       </c>
       <c r="N5" s="2">
-        <f>ROUND('[1]4'!D21/1000,)</f>
         <v>-14327</v>
       </c>
       <c r="O5" s="2">
-        <f>ROUND('[1]4'!E21/1000,)</f>
         <v>-185205</v>
       </c>
       <c r="P5" s="2">
-        <f>ROUND('[1]4'!F21/1000,)</f>
         <v>302269</v>
       </c>
       <c r="Y5" s="2">
-        <f>ROUND('[1]7'!B12/1000,)</f>
         <v>0</v>
       </c>
       <c r="Z5" s="2">
-        <f>ROUND('[1]7'!C12/1000,)</f>
         <v>389625</v>
       </c>
       <c r="AA5" s="2">
-        <f>ROUND('[1]8'!C14,)</f>
         <v>901337</v>
       </c>
       <c r="AB5" s="2">
-        <f>ROUND('[1]8'!D14,)</f>
         <v>1209901084</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f>SUM(A2:A5)</f>
         <v>2585629</v>
       </c>
       <c r="B6" s="2">
-        <f>SUM(B2:B5)</f>
         <v>-1866926</v>
       </c>
       <c r="C6" s="2">
-        <f>SUM(C2:C5)</f>
         <v>718703</v>
       </c>
       <c r="D6" s="3"/>
       <c r="G6" s="2">
-        <f>ROUND('[1]4'!B12/1000,)</f>
         <v>302269</v>
       </c>
       <c r="H6" s="2">
-        <f>ROUND('[1]4'!C12/1000,)</f>
-        <v>662528</v>
+        <v>643653</v>
       </c>
       <c r="I6" s="2">
-        <f>ROUND('[1]4'!D12/1000,)</f>
         <v>-27941</v>
       </c>
       <c r="J6" s="2">
-        <f>ROUND('[1]4'!E12/1000,)</f>
-        <v>-218153</v>
+        <v>-199278</v>
       </c>
       <c r="K6" s="2">
-        <f>ROUND('[1]4'!F12/1000,)</f>
         <v>718703</v>
       </c>
       <c r="Y6" s="2">
-        <f>SUM(Y2:Y5)</f>
         <v>3941780</v>
       </c>
       <c r="Z6" s="2">
-        <f>SUM(Z2:Z5)</f>
         <v>3250889</v>
       </c>
       <c r="AA6" s="2">
-        <f>ROUND('[1]8'!C15,)</f>
         <v>40479</v>
       </c>
       <c r="AB6" s="2">
-        <f>ROUND('[1]8'!D15,)</f>
         <v>64775976</v>
       </c>
     </row>

--- a/values.xlsx
+++ b/values.xlsx
@@ -24,96 +24,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>ppe2</t>
+  </si>
+  <si>
+    <t>ppe3</t>
+  </si>
+  <si>
+    <t>ppe4</t>
+  </si>
+  <si>
+    <t>ppe5</t>
+  </si>
+  <si>
+    <t>ppe6</t>
+  </si>
+  <si>
+    <t>ppe7</t>
+  </si>
+  <si>
+    <t>ppe8</t>
+  </si>
+  <si>
+    <t>ppe9</t>
+  </si>
+  <si>
+    <t>ppe10</t>
+  </si>
+  <si>
+    <t>ppe11</t>
+  </si>
+  <si>
+    <t>ppe12</t>
+  </si>
+  <si>
+    <t>ppe13</t>
+  </si>
+  <si>
+    <t>ppe14</t>
+  </si>
+  <si>
+    <t>ppe15</t>
+  </si>
+  <si>
+    <t>ppe16</t>
+  </si>
+  <si>
+    <t>as2</t>
+  </si>
+  <si>
+    <t>as3</t>
+  </si>
+  <si>
+    <t>as4</t>
+  </si>
+  <si>
+    <t>as5</t>
+  </si>
+  <si>
+    <t>as6</t>
+  </si>
+  <si>
+    <t>as7</t>
+  </si>
+  <si>
+    <t>as8</t>
+  </si>
   <si>
     <t>ppe1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppe2</t>
-  </si>
-  <si>
-    <t>ppe3</t>
-  </si>
-  <si>
-    <t>ppe4</t>
-  </si>
-  <si>
-    <t>ppe5</t>
-  </si>
-  <si>
-    <t>ppe6</t>
-  </si>
-  <si>
-    <t>ppe7</t>
-  </si>
-  <si>
-    <t>ppe8</t>
-  </si>
-  <si>
-    <t>ppe9</t>
-  </si>
-  <si>
-    <t>ppe10</t>
-  </si>
-  <si>
-    <t>ppe11</t>
-  </si>
-  <si>
-    <t>ppe12</t>
-  </si>
-  <si>
-    <t>ppe13</t>
-  </si>
-  <si>
-    <t>ppe14</t>
-  </si>
-  <si>
-    <t>ppe15</t>
-  </si>
-  <si>
-    <t>ppe16</t>
-  </si>
-  <si>
-    <t>as2</t>
-  </si>
-  <si>
-    <t>as3</t>
-  </si>
-  <si>
-    <t>as4</t>
-  </si>
-  <si>
-    <t>as5</t>
+  </si>
+  <si>
+    <t>guar</t>
   </si>
   <si>
     <t>as1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>as6</t>
-  </si>
-  <si>
-    <t>as7</t>
-  </si>
-  <si>
-    <t>as8</t>
   </si>
   <si>
     <t>pen1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pen2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fore1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fore2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax1</t>
+  </si>
+  <si>
+    <t>tax2</t>
+  </si>
+  <si>
+    <t>tax3</t>
+  </si>
+  <si>
+    <t>tax4</t>
+  </si>
+  <si>
+    <t>tax5</t>
+  </si>
+  <si>
+    <t>tax6</t>
+  </si>
+  <si>
+    <t>tax7</t>
+  </si>
+  <si>
+    <t>tax8</t>
+  </si>
+  <si>
+    <t>tax9</t>
+  </si>
+  <si>
+    <t>tax10</t>
   </si>
 </sst>
 </file>
@@ -123,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\);\-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +186,15 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,6 +227,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -200,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,6 +264,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,84 +576,87 @@
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="Z1" s="4" t="s">
         <v>25</v>
@@ -594,8 +667,41 @@
       <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>594246</v>
       </c>
@@ -645,43 +751,76 @@
         <v>73984</v>
       </c>
       <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
         <v>81345</v>
       </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
       <c r="S2" s="2">
         <v>0</v>
       </c>
       <c r="T2" s="2">
-        <v>81345</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2">
         <v>81345</v>
       </c>
       <c r="V2" s="2">
-        <v>0</v>
+        <v>81345</v>
       </c>
       <c r="W2" s="2">
         <v>0</v>
       </c>
       <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
         <v>81345</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Z2" s="2">
         <v>3250889</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="AA2" s="2">
         <v>2267076</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AB2" s="2">
         <v>47999196</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AC2" s="2">
         <v>56903046929</v>
       </c>
+      <c r="AD2" s="2">
+        <v>10352510</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>8225523</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>634842856</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>359178096</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>202963</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>-16405</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>186558</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>202098</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>865</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>202963</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>603467</v>
       </c>
@@ -730,44 +869,75 @@
       <c r="P3" s="2">
         <v>123015</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="2">
         <v>1369522</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2">
         <v>3806171</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
         <v>-3185444</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <v>1990249</v>
       </c>
-      <c r="U3" s="2">
+      <c r="V3" s="2">
         <v>928104</v>
       </c>
-      <c r="V3" s="2">
+      <c r="W3" s="2">
         <v>3297986</v>
       </c>
-      <c r="W3" s="2">
+      <c r="X3" s="2">
         <v>-2856568</v>
       </c>
-      <c r="X3" s="2">
+      <c r="Y3" s="2">
         <v>1369522</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Z3" s="2">
         <v>-207149</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AA3" s="2">
         <v>-50254</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AB3" s="2">
         <v>38952</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AC3" s="2">
         <v>46177596</v>
       </c>
+      <c r="AD3" s="2">
+        <v>12287</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>429967</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>149011971</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>82301099</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>103793</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>-57622</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>46171</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>88759</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>15034</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>103793</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1233306</v>
       </c>
@@ -816,44 +986,75 @@
       <c r="P4" s="2">
         <v>105270</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="2">
         <v>1450867</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="2">
         <v>3806171</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>-3185444</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="2">
         <v>2071594</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <v>1009449</v>
       </c>
-      <c r="V4" s="2">
+      <c r="W4" s="2">
         <v>3297986</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="2">
         <v>-2856568</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <v>1450867</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Z4" s="2">
         <v>898040</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AA4" s="2">
         <v>644442</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AB4" s="2">
         <v>8123125</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AC4" s="2">
         <v>9629964273</v>
       </c>
+      <c r="AD4" s="2">
+        <v>10364798</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>8655490</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>515829</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>425380</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>996902</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>41424</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>1038327</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>907077</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>89826</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>996902</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>154610</v>
       </c>
@@ -902,20 +1103,45 @@
       <c r="P5" s="2">
         <v>302269</v>
       </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q5" s="6"/>
       <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
         <v>389625</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AB5" s="2">
         <v>901337</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AC5" s="2">
         <v>1209901084</v>
       </c>
+      <c r="AF5" s="5">
+        <v>15417027</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>8655490</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>81345</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>81345</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>106629</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>-25285</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>81345</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2585629</v>
       </c>
@@ -941,17 +1167,294 @@
       <c r="K6" s="2">
         <v>718703</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Z6" s="2">
         <v>3941780</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AA6" s="2">
         <v>3250889</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <v>40479</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AC6" s="2">
         <v>64775976</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>928104</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>441419</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>1369522</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>742570</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>185534</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>928104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="5">
+        <v>2267076</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>644442</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>2911518</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>2218463</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>48613</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>2267076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="5">
+        <v>84211</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>-36071</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>48140</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>121034</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>-36823</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>84211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="5">
+        <v>428730</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>-428730</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>2455174</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>-2026444</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>428730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AH10" s="5">
+        <v>720719</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>-720719</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>748764</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>-28045</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>720719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AH11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>81489</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>81489</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AH12" s="5">
+        <v>5813844</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>-50774</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>5763070</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>7590568</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>-1776725</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>5813844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AH13" s="5">
+        <v>1406950</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>-12287</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>1394663</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>1836917</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>-429967</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>1406950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AH14" s="5">
+        <v>1406950</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>-12287</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>1394663</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>1836917</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>-429967</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>1406950</v>
       </c>
     </row>
   </sheetData>
